--- a/src/main/resources/DataList/WC8-3N-1(1-10).xlsx
+++ b/src/main/resources/DataList/WC8-3N-1(1-10).xlsx
@@ -8,18 +8,25 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="插值数据表" r:id="rId5" sheetId="2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="4">
   <si>
     <t>WC8-3N-1</t>
   </si>
   <si>
     <t>1-10</t>
+  </si>
+  <si>
+    <t>井号</t>
+  </si>
+  <si>
+    <t>序号</t>
   </si>
 </sst>
 </file>
@@ -1437,4 +1444,381 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:BH2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P1" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R1" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S1" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V1" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W1" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="X1" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z1" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AN1" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AO1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AP1" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="AQ1" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AR1" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AS1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AT1" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="AU1" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AX1" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AY1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AZ1" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BA1" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BB1" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BC1" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BD1" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BE1" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="BF1" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="BG1" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="BH1" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.167368421052641</v>
+      </c>
+      <c r="I2" t="n">
+        <v>10.048301886792457</v>
+      </c>
+      <c r="J2" t="n">
+        <v>26.957837837837836</v>
+      </c>
+      <c r="K2" t="n">
+        <v>8.782768595041322</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.4734016393442624</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.1967622950819672</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.9754508196721313</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.6595098039215688</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.504281045751634</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.3490522875816993</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.22486928104575138</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.1337931034482759</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.18551724137931036</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.23724137931034484</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.27862068965517245</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.25536458333333334</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.22002232142857142</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.1846800595238095</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.15640624999999997</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.11399553571428575</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.0926052889324192</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.08036238981390795</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.07056807051909893</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.05587659157688542</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.009835623821072488</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.00444624090541633</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>